--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="17235" windowHeight="6150" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="17235" windowHeight="6150" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="weblog" sheetId="10" r:id="rId9"/>
     <sheet name="07-Cargo" sheetId="12" r:id="rId10"/>
     <sheet name="08-Coordenadoria" sheetId="13" r:id="rId11"/>
+    <sheet name="09-Linguagens" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tables!$A$1:$B$152</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="247">
   <si>
     <t># Tables_in_20160610_igsis</t>
   </si>
@@ -756,6 +757,18 @@
   </si>
   <si>
     <t>coordenadoria</t>
+  </si>
+  <si>
+    <t>sis_formacao_linguagem</t>
+  </si>
+  <si>
+    <t>id_linguagem</t>
+  </si>
+  <si>
+    <t>linguagem</t>
+  </si>
+  <si>
+    <t>idLinguagem</t>
   </si>
 </sst>
 </file>
@@ -2153,6 +2166,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -2176,25 +2246,25 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>239</v>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="17235" windowHeight="6150" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="17235" windowHeight="6150" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="07-Cargo" sheetId="12" r:id="rId10"/>
     <sheet name="08-Coordenadoria" sheetId="13" r:id="rId11"/>
     <sheet name="09-Linguagens" sheetId="14" r:id="rId12"/>
+    <sheet name="10-Projetos" sheetId="15" r:id="rId13"/>
+    <sheet name="11-SubPrefeituras" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tables!$A$1:$B$152</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="256">
   <si>
     <t># Tables_in_20160610_igsis</t>
   </si>
@@ -769,13 +771,40 @@
   </si>
   <si>
     <t>idLinguagem</t>
+  </si>
+  <si>
+    <t>sis_formacao_projeto</t>
+  </si>
+  <si>
+    <t>id_projeto</t>
+  </si>
+  <si>
+    <t>idProjeto</t>
+  </si>
+  <si>
+    <t>projeto</t>
+  </si>
+  <si>
+    <t>sis_formacao_subprefeitura</t>
+  </si>
+  <si>
+    <t>subPrefeituras</t>
+  </si>
+  <si>
+    <t>idSubPrefeitura</t>
+  </si>
+  <si>
+    <t>id_Subprefeitura</t>
+  </si>
+  <si>
+    <t>Subprefeitura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1038,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1043,6 +1073,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1218,21 +1249,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView topLeftCell="C96" workbookViewId="0">
       <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,47 +1274,47 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1291,23 +1322,23 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>151</v>
       </c>
@@ -1318,12 +1349,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1362,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1339,42 +1370,42 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1382,22 +1413,22 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1405,67 +1436,67 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1476,177 +1507,177 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -1654,82 +1685,82 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>91</v>
       </c>
@@ -1737,57 +1768,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>102</v>
       </c>
@@ -1795,22 +1826,22 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -1818,7 +1849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -1826,7 +1857,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
@@ -1834,7 +1865,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -1842,7 +1873,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -1850,7 +1881,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
@@ -1858,7 +1889,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
@@ -1866,7 +1897,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
@@ -1874,7 +1905,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
@@ -1882,7 +1913,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
@@ -1890,17 +1921,17 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
@@ -1908,62 +1939,62 @@
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
@@ -1971,7 +2002,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
@@ -1979,37 +2010,37 @@
         <v>165</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>138</v>
       </c>
@@ -2017,37 +2048,37 @@
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>145</v>
       </c>
@@ -2055,27 +2086,27 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -2088,20 +2119,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>176</v>
       </c>
@@ -2112,7 +2143,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>233</v>
       </c>
@@ -2121,7 +2152,7 @@
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>234</v>
       </c>
@@ -2130,7 +2161,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>235</v>
       </c>
@@ -2139,7 +2170,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>236</v>
       </c>
@@ -2148,7 +2179,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>237</v>
       </c>
@@ -2163,20 +2194,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>176</v>
       </c>
@@ -2187,7 +2218,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>240</v>
       </c>
@@ -2196,7 +2227,7 @@
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>241</v>
       </c>
@@ -2205,7 +2236,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>242</v>
       </c>
@@ -2220,20 +2251,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>176</v>
       </c>
@@ -2244,7 +2275,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>243</v>
       </c>
@@ -2253,7 +2284,7 @@
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>244</v>
       </c>
@@ -2262,12 +2293,126 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>245</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>239</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -2277,20 +2422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>176</v>
       </c>
@@ -2301,7 +2446,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>193</v>
       </c>
@@ -2310,7 +2455,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>187</v>
       </c>
@@ -2319,7 +2464,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>152</v>
       </c>
@@ -2328,7 +2473,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>195</v>
       </c>
@@ -2337,7 +2482,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>186</v>
       </c>
@@ -2352,20 +2497,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>176</v>
       </c>
@@ -2376,7 +2521,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>175</v>
       </c>
@@ -2385,7 +2530,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>178</v>
       </c>
@@ -2394,7 +2539,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>180</v>
       </c>
@@ -2403,7 +2548,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>181</v>
       </c>
@@ -2414,7 +2559,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>179</v>
       </c>
@@ -2423,7 +2568,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>183</v>
       </c>
@@ -2432,7 +2577,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>184</v>
       </c>
@@ -2443,7 +2588,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>185</v>
@@ -2452,7 +2597,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>186</v>
       </c>
@@ -2461,7 +2606,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -2477,21 +2622,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>176</v>
       </c>
@@ -2502,7 +2647,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>175</v>
       </c>
@@ -2511,7 +2656,7 @@
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>178</v>
       </c>
@@ -2520,7 +2665,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>207</v>
       </c>
@@ -2537,20 +2682,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>177</v>
       </c>
@@ -2558,62 +2703,62 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>227</v>
       </c>
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>201</v>
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>228</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>202</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>203</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>231</v>
       </c>
@@ -2625,21 +2770,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>176</v>
       </c>
@@ -2650,7 +2795,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>209</v>
       </c>
@@ -2659,7 +2804,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>199</v>
       </c>
@@ -2668,7 +2813,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>200</v>
       </c>
@@ -2677,14 +2822,14 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>204</v>
       </c>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>187</v>
       </c>
@@ -2693,7 +2838,7 @@
       </c>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>222</v>
       </c>
@@ -2709,21 +2854,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>176</v>
       </c>
@@ -2734,7 +2879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>175</v>
       </c>
@@ -2743,7 +2888,7 @@
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>178</v>
       </c>
@@ -2752,7 +2897,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>213</v>
       </c>
@@ -2767,21 +2912,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>176</v>
       </c>
@@ -2792,7 +2937,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>210</v>
       </c>
@@ -2801,7 +2946,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>205</v>
       </c>
@@ -2810,7 +2955,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>206</v>
       </c>
@@ -2819,7 +2964,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>186</v>
       </c>
@@ -2828,7 +2973,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>232</v>
       </c>
@@ -2845,20 +2990,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>176</v>
       </c>
@@ -2869,7 +3014,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>215</v>
       </c>
@@ -2878,7 +3023,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>217</v>
       </c>
@@ -2887,7 +3032,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>218</v>
       </c>
@@ -2896,7 +3041,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>219</v>
       </c>
@@ -2905,7 +3050,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>220</v>
       </c>
@@ -2914,7 +3059,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>186</v>
       </c>
@@ -2923,7 +3068,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>187</v>
       </c>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -2369,7 +2369,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
